--- a/Gerador de arquivo de retorno/AJUDA/Guia do arquivo de retorno com exemplos.xlsx
+++ b/Gerador de arquivo de retorno/AJUDA/Guia do arquivo de retorno com exemplos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="8820"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -393,12 +393,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -407,41 +407,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,8 +422,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,26 +452,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,22 +469,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -529,15 +498,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,6 +536,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -560,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,21 +874,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,6 +912,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -933,6 +950,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -943,181 +975,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1163,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1485,7 +1499,7 @@
   <dimension ref="A1:BD47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1532,31 +1546,31 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
     </row>
     <row r="2" ht="13.5" spans="1:31">
       <c r="A2" s="4" t="s">
@@ -1677,7 +1691,7 @@
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1705,7 +1719,7 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1716,10 +1730,10 @@
       <c r="B10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1733,7 +1747,7 @@
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1744,10 +1758,10 @@
       <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1761,7 +1775,7 @@
       <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1775,7 +1789,7 @@
       <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1842,7 +1856,7 @@
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -1856,7 +1870,7 @@
       <c r="B20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1870,7 +1884,7 @@
       <c r="B21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -1884,7 +1898,7 @@
       <c r="B22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -1898,7 +1912,7 @@
       <c r="B23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2038,7 +2052,7 @@
       <c r="B33" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="12" t="s">
